--- a/repartition acces.xlsx
+++ b/repartition acces.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Maxime\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kevin\Documents\IUT\Access\access-tutore\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -118,7 +118,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -133,6 +133,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF07DB39"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -156,19 +162,19 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -176,6 +182,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF07DB39"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -452,8 +463,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+    <sheetView tabSelected="1" topLeftCell="B13" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -479,289 +490,289 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="3"/>
-      <c r="B3" s="2" t="s">
+      <c r="A3" s="2"/>
+      <c r="B3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="2"/>
+      <c r="C3" s="5"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3" t="s">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="5"/>
-      <c r="G4" s="4"/>
+      <c r="E4" s="3"/>
+      <c r="G4" s="7"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3" t="s">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="5"/>
+      <c r="D5" s="3"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3" t="s">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="5"/>
+      <c r="E6" s="3"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="3"/>
-      <c r="B7" s="2" t="s">
+      <c r="A7" s="2"/>
+      <c r="B7" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="2"/>
-      <c r="G7" s="4"/>
+      <c r="C7" s="5"/>
+      <c r="G7" s="7"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3" t="s">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="5"/>
+      <c r="E8" s="3"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3" t="s">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="5"/>
+      <c r="D9" s="3"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3" t="s">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E10" s="5"/>
+      <c r="E10" s="3"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="3"/>
-      <c r="B11" s="2" t="s">
+      <c r="A11" s="2"/>
+      <c r="B11" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="2"/>
+      <c r="C11" s="5"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3" t="s">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E12" s="5"/>
-      <c r="G12" s="4"/>
+      <c r="E12" s="3"/>
+      <c r="G12" s="7"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3" t="s">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D13" s="5"/>
+      <c r="D13" s="3"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3" t="s">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="5"/>
+      <c r="E14" s="3"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="3"/>
-      <c r="B15" s="2" t="s">
+      <c r="A15" s="2"/>
+      <c r="B15" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="2"/>
+      <c r="C15" s="5"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3" t="s">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E16" s="5"/>
-      <c r="G16" s="4"/>
+      <c r="E16" s="3"/>
+      <c r="G16" s="7"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3" t="s">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D17" s="5"/>
+      <c r="D17" s="3"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3" t="s">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E18" s="5"/>
+      <c r="E18" s="3"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="3"/>
-      <c r="B19" s="2" t="s">
+      <c r="A19" s="2"/>
+      <c r="B19" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C19" s="2"/>
+      <c r="C19" s="5"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="3"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3" t="s">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E20" s="5"/>
-      <c r="G20" s="4"/>
+      <c r="E20" s="3"/>
+      <c r="G20" s="7"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="3"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3" t="s">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D21" s="5"/>
+      <c r="D21" s="3"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="3"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3" t="s">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E22" s="5"/>
+      <c r="E22" s="3"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="3"/>
-      <c r="B23" s="2" t="s">
+      <c r="A23" s="2"/>
+      <c r="B23" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C23" s="2"/>
+      <c r="C23" s="5"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="3"/>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3" t="s">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E24" s="5"/>
-      <c r="G24" s="4"/>
+      <c r="E24" s="3"/>
+      <c r="G24" s="7"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="3"/>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3" t="s">
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D25" s="5"/>
+      <c r="D25" s="3"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="3"/>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3" t="s">
+      <c r="A26" s="2"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E26" s="5"/>
+      <c r="E26" s="3"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="3"/>
-      <c r="B27" s="2" t="s">
+      <c r="A27" s="2"/>
+      <c r="B27" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C27" s="2"/>
+      <c r="C27" s="5"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="3"/>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3" t="s">
+      <c r="A28" s="2"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E28" s="5"/>
-      <c r="G28" s="4"/>
+      <c r="E28" s="3"/>
+      <c r="G28" s="7"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="3"/>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3" t="s">
+      <c r="A29" s="2"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D29" s="5"/>
+      <c r="D29" s="3"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="3"/>
-      <c r="B30" s="3"/>
-      <c r="C30" s="3" t="s">
+      <c r="A30" s="2"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E30" s="5"/>
+      <c r="E30" s="3"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
+      <c r="A31" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
+      <c r="B31" s="5"/>
+      <c r="C31" s="5"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B32" s="2" t="s">
+      <c r="B32" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C32" s="2"/>
+      <c r="C32" s="5"/>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C33" s="3" t="s">
+      <c r="C33" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E33" s="5"/>
+      <c r="E33" s="3"/>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C34" s="3" t="s">
+      <c r="C34" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D34" s="5"/>
+      <c r="D34" s="3"/>
       <c r="F34" s="6" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="35" spans="2:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C35" s="3" t="s">
+      <c r="C35" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E35" s="5"/>
+      <c r="E35" s="3"/>
       <c r="F35" s="6"/>
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B36" s="2" t="s">
+      <c r="B36" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C36" s="2"/>
+      <c r="C36" s="5"/>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C37" s="7" t="s">
+      <c r="C37" s="4" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C38" s="7" t="s">
+      <c r="C38" s="4" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C39" s="7" t="s">
+      <c r="C39" s="4" t="s">
         <v>20</v>
       </c>
       <c r="F39" t="s">
@@ -769,26 +780,26 @@
       </c>
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B40" s="2" t="s">
+      <c r="B40" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C40" s="2"/>
+      <c r="C40" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B23:C23"/>
     <mergeCell ref="B27:C27"/>
     <mergeCell ref="A31:C31"/>
     <mergeCell ref="B32:C32"/>
     <mergeCell ref="F34:F35"/>
     <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B7:C7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
